--- a/outputs/testbook_feedbackAI.xlsx
+++ b/outputs/testbook_feedbackAI.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK315"/>
+  <dimension ref="A1:AK305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7840,12 +7840,12 @@
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>Verify DWH Tracking for Plays from Precompiled SGP Cards</t>
+          <t>CaroselloHP-proj_001_NoPrecompilata_NoCarosello_TEST_Desktop</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>TC-DWH-001</t>
+          <t>TC-001</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -7853,12 +7853,12 @@
       </c>
       <c r="D291" s="2" t="inlineStr">
         <is>
-          <t>Backend</t>
+          <t>Desktop</t>
         </is>
       </c>
       <c r="E291" s="2" t="inlineStr">
         <is>
-          <t>Backend</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="F291" s="2" t="inlineStr">
@@ -7878,14 +7878,14 @@
       </c>
       <c r="I291" s="2" t="inlineStr">
         <is>
-          <t>Web Backend (DWH)</t>
+          <t>Windows 10, Web Application</t>
         </is>
       </c>
       <c r="J291" s="2" t="inlineStr">
         <is>
-          <t>1. DWH system is operational and accessible.
-2. At least one valid precompiled SGP Card is available.
-3. User has necessary permissions to submit plays and access DWH records.</t>
+          <t>1. Backend is accessible and can be configured to return no precompilata data.
+2. User is not logged in (or as per standard Home Page access).
+3. Browser cache is cleared to avoid stale data.</t>
         </is>
       </c>
       <c r="K291" s="2" t="inlineStr">
@@ -7895,7 +7895,7 @@
       </c>
       <c r="L291" s="2" t="inlineStr">
         <is>
-          <t>DWH Tracking of SGP Card Plays</t>
+          <t>Carosello HP Display Logic</t>
         </is>
       </c>
       <c r="M291" s="2" t="inlineStr">
@@ -7911,12 +7911,12 @@
       </c>
       <c r="P291" s="2" t="inlineStr">
         <is>
-          <t>Precompiled SGP Card data as per DWH_SGP Generator; user credentials with DWH access.</t>
+          <t>No precompilata data returned from backend.</t>
         </is>
       </c>
       <c r="Q291" s="2" t="inlineStr">
         <is>
-          <t>The play from the precompiled SGP Card is correctly tracked in the DWH with all required fields populated as per the DWH_SGP Generator specification.</t>
+          <t>The Carosello HP is not visible when no precompilata data is received from the backend.</t>
         </is>
       </c>
       <c r="R291" s="2" t="n">
@@ -7924,12 +7924,12 @@
       </c>
       <c r="S291" s="2" t="inlineStr">
         <is>
-          <t>Ensure a precompiled SGP Card is available and valid according to DWH_SGP Generator specifications.</t>
+          <t>Ensure the backend is configured to return no precompilata data for any sport (e.g., due to absence of market types).</t>
         </is>
       </c>
       <c r="T291" s="2" t="inlineStr">
         <is>
-          <t>A valid precompiled SGP Card is ready for use.</t>
+          <t>Backend returns an empty precompilata response.</t>
         </is>
       </c>
       <c r="U291" s="2" t="inlineStr">
@@ -7942,9 +7942,14 @@
           <t>Test Case</t>
         </is>
       </c>
+      <c r="Z291" s="2" t="inlineStr">
+        <is>
+          <t>Covers scenario where no precompilata data is available for any sport.</t>
+        </is>
+      </c>
       <c r="AA291" s="2" t="inlineStr">
         <is>
-          <t>DWH</t>
+          <t>Carosello HP - Condizioni di visualizzazione</t>
         </is>
       </c>
     </row>
@@ -7954,12 +7959,12 @@
       </c>
       <c r="S292" s="2" t="inlineStr">
         <is>
-          <t>Initiate a play using the precompiled SGP Card through the application interface.</t>
+          <t>Navigate to the Home Page of the application via Desktop browser.</t>
         </is>
       </c>
       <c r="T292" s="2" t="inlineStr">
         <is>
-          <t>The play is successfully submitted and processed by the system.</t>
+          <t>Home Page loads successfully.</t>
         </is>
       </c>
     </row>
@@ -7969,913 +7974,598 @@
       </c>
       <c r="S293" s="2" t="inlineStr">
         <is>
-          <t>Access the DWH tracking system and locate the record for the submitted play.</t>
+          <t>Observe the area where the Carosello HP would normally be displayed.</t>
         </is>
       </c>
       <c r="T293" s="2" t="inlineStr">
         <is>
-          <t>A record corresponding to the play from the precompiled SGP Card is present in the DWH.</t>
+          <t>The Carosello HP is not displayed on the Home Page.</t>
         </is>
       </c>
     </row>
     <row r="294">
+      <c r="A294" s="2" t="inlineStr">
+        <is>
+          <t>CaroselloHP-proj_001_NoBasket_ShowOnlyCalcio_TEST_Desktop</t>
+        </is>
+      </c>
+      <c r="B294" s="2" t="inlineStr">
+        <is>
+          <t>TC-002</t>
+        </is>
+      </c>
+      <c r="C294" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="D294" s="2" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="F294" s="2" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="G294" s="2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="H294" s="2" t="inlineStr">
+        <is>
+          <t>UAT</t>
+        </is>
+      </c>
+      <c r="I294" s="2" t="inlineStr">
+        <is>
+          <t>Windows 10, Web Application</t>
+        </is>
+      </c>
+      <c r="J294" s="2" t="inlineStr">
+        <is>
+          <t>1. Backend is accessible and can be configured to return precompilata data for Calcio only.
+2. User is not logged in (or as per standard Home Page access).
+3. Browser cache is cleared to avoid stale data.</t>
+        </is>
+      </c>
+      <c r="K294" s="2" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="L294" s="2" t="inlineStr">
+        <is>
+          <t>Carosello HP Display Logic</t>
+        </is>
+      </c>
+      <c r="M294" s="2" t="inlineStr">
+        <is>
+          <t>functional</t>
+        </is>
+      </c>
+      <c r="N294" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O294" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P294" s="2" t="inlineStr">
+        <is>
+          <t>Precompilata data for Calcio only; no Basket data.</t>
+        </is>
+      </c>
+      <c r="Q294" s="2" t="inlineStr">
+        <is>
+          <t>The Carosello HP displays only the Calcio item when no Basket precompilata is received.</t>
+        </is>
+      </c>
       <c r="R294" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S294" s="2" t="inlineStr">
         <is>
-          <t>Verify that all tracked fields (as specified in DWH_SGP Generator) are correctly populated in the DWH record.</t>
+          <t>Ensure the backend is configured to return precompilata data only for Calcio, with no Basket data (e.g., due to absence of Basket market types).</t>
         </is>
       </c>
       <c r="T294" s="2" t="inlineStr">
         <is>
-          <t>All required fields are present and correctly populated according to the DWH_SGP Generator specification.</t>
+          <t>Backend returns precompilata data for Calcio only.</t>
+        </is>
+      </c>
+      <c r="U294" s="2" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="Y294" s="2" t="inlineStr">
+        <is>
+          <t>Test Case</t>
+        </is>
+      </c>
+      <c r="Z294" s="2" t="inlineStr">
+        <is>
+          <t>Covers scenario where only Calcio precompilata is available.</t>
+        </is>
+      </c>
+      <c r="AA294" s="2" t="inlineStr">
+        <is>
+          <t>Carosello HP - Condizioni di visualizzazione</t>
         </is>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="2" t="inlineStr">
-        <is>
-          <t>Verify DWH Rejects Invalid Precompiled SGP Card Plays</t>
-        </is>
-      </c>
-      <c r="B295" s="2" t="inlineStr">
-        <is>
-          <t>TC-DWH-002</t>
-        </is>
-      </c>
-      <c r="C295" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="D295" s="2" t="inlineStr">
-        <is>
-          <t>Backend</t>
-        </is>
-      </c>
-      <c r="E295" s="2" t="inlineStr">
-        <is>
-          <t>Backend</t>
-        </is>
-      </c>
-      <c r="F295" s="2" t="inlineStr">
-        <is>
-          <t>Computer</t>
-        </is>
-      </c>
-      <c r="G295" s="2" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="H295" s="2" t="inlineStr">
-        <is>
-          <t>UAT</t>
-        </is>
-      </c>
-      <c r="I295" s="2" t="inlineStr">
-        <is>
-          <t>Web Backend (DWH)</t>
-        </is>
-      </c>
-      <c r="J295" s="2" t="inlineStr">
-        <is>
-          <t>1. DWH system is operational and accessible.
-2. At least one invalid precompiled SGP Card is available.
-3. User has necessary permissions to submit plays and access DWH records.</t>
-        </is>
-      </c>
-      <c r="K295" s="2" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="L295" s="2" t="inlineStr">
-        <is>
-          <t>DWH Tracking of SGP Card Plays</t>
-        </is>
-      </c>
-      <c r="M295" s="2" t="inlineStr">
-        <is>
-          <t>functional</t>
-        </is>
-      </c>
-      <c r="N295" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O295" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P295" s="2" t="inlineStr">
-        <is>
-          <t>Malformed or incomplete SGP Card data; user credentials with DWH access.</t>
-        </is>
-      </c>
-      <c r="Q295" s="2" t="inlineStr">
-        <is>
-          <t>The system rejects invalid precompiled SGP Card plays and no corresponding record is created in the DWH.</t>
-        </is>
-      </c>
       <c r="R295" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S295" s="2" t="inlineStr">
         <is>
-          <t>Prepare an invalid or malformed precompiled SGP Card (e.g., missing required fields or incorrect format).</t>
+          <t>Navigate to the Home Page of the application via Desktop browser.</t>
         </is>
       </c>
       <c r="T295" s="2" t="inlineStr">
         <is>
-          <t>An invalid precompiled SGP Card is available for testing.</t>
-        </is>
-      </c>
-      <c r="U295" s="2" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="Y295" s="2" t="inlineStr">
-        <is>
-          <t>Test Case</t>
-        </is>
-      </c>
-      <c r="AA295" s="2" t="inlineStr">
-        <is>
-          <t>DWH</t>
+          <t>Home Page loads successfully.</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="R296" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S296" s="2" t="inlineStr">
         <is>
-          <t>Attempt to submit a play using the invalid precompiled SGP Card through the application interface.</t>
+          <t>Observe the Carosello HP section.</t>
         </is>
       </c>
       <c r="T296" s="2" t="inlineStr">
         <is>
-          <t>The system rejects the play submission and displays an appropriate error message.</t>
+          <t>The Carosello HP is displayed with only the Calcio item visible; no Basket item is present.</t>
         </is>
       </c>
     </row>
     <row r="297">
+      <c r="A297" s="2" t="inlineStr">
+        <is>
+          <t>CaroselloHP-proj_001_NoCalcio_ShowOnlyBasket_TEST_Desktop</t>
+        </is>
+      </c>
+      <c r="B297" s="2" t="inlineStr">
+        <is>
+          <t>TC-003</t>
+        </is>
+      </c>
+      <c r="C297" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="D297" s="2" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="F297" s="2" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="G297" s="2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="H297" s="2" t="inlineStr">
+        <is>
+          <t>UAT</t>
+        </is>
+      </c>
+      <c r="I297" s="2" t="inlineStr">
+        <is>
+          <t>Windows 10, Web Application</t>
+        </is>
+      </c>
+      <c r="J297" s="2" t="inlineStr">
+        <is>
+          <t>1. Backend is accessible and can be configured to return precompilata data for Basket only.
+2. User is not logged in (or as per standard Home Page access).
+3. Browser cache is cleared to avoid stale data.</t>
+        </is>
+      </c>
+      <c r="K297" s="2" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="L297" s="2" t="inlineStr">
+        <is>
+          <t>Carosello HP Display Logic</t>
+        </is>
+      </c>
+      <c r="M297" s="2" t="inlineStr">
+        <is>
+          <t>functional</t>
+        </is>
+      </c>
+      <c r="N297" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O297" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P297" s="2" t="inlineStr">
+        <is>
+          <t>Precompilata data for Basket only; no Calcio data.</t>
+        </is>
+      </c>
+      <c r="Q297" s="2" t="inlineStr">
+        <is>
+          <t>The Carosello HP displays only the Basket item when no Calcio precompilata is received.</t>
+        </is>
+      </c>
       <c r="R297" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S297" s="2" t="inlineStr">
         <is>
-          <t>Access the DWH tracking system and search for any record of the rejected play.</t>
+          <t>Ensure the backend is configured to return precompilata data only for Basket, with no Calcio data (e.g., due to absence of Calcio market types).</t>
         </is>
       </c>
       <c r="T297" s="2" t="inlineStr">
         <is>
-          <t>No record of the rejected play is present in the DWH.</t>
+          <t>Backend returns precompilata data for Basket only.</t>
+        </is>
+      </c>
+      <c r="U297" s="2" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="Y297" s="2" t="inlineStr">
+        <is>
+          <t>Test Case</t>
+        </is>
+      </c>
+      <c r="Z297" s="2" t="inlineStr">
+        <is>
+          <t>Covers scenario where only Basket precompilata is available.</t>
+        </is>
+      </c>
+      <c r="AA297" s="2" t="inlineStr">
+        <is>
+          <t>Carosello HP - Condizioni di visualizzazione</t>
         </is>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="2" t="inlineStr">
-        <is>
-          <t>Verify DWH Field Mapping for Precompiled SGP Card Plays</t>
-        </is>
-      </c>
-      <c r="B298" s="2" t="inlineStr">
-        <is>
-          <t>TC-DWH-003</t>
-        </is>
-      </c>
-      <c r="C298" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="D298" s="2" t="inlineStr">
-        <is>
-          <t>Backend</t>
-        </is>
-      </c>
-      <c r="E298" s="2" t="inlineStr">
-        <is>
-          <t>Backend</t>
-        </is>
-      </c>
-      <c r="F298" s="2" t="inlineStr">
-        <is>
-          <t>Computer</t>
-        </is>
-      </c>
-      <c r="G298" s="2" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="H298" s="2" t="inlineStr">
-        <is>
-          <t>UAT</t>
-        </is>
-      </c>
-      <c r="I298" s="2" t="inlineStr">
-        <is>
-          <t>Web Backend (DWH)</t>
-        </is>
-      </c>
-      <c r="J298" s="2" t="inlineStr">
-        <is>
-          <t>1. DWH system is operational and accessible.
-2. A valid precompiled SGP Card with known field values is available.
-3. User has necessary permissions to submit plays and access DWH records.
-4. DWH_SGP Generator mapping documentation is available for reference.</t>
-        </is>
-      </c>
-      <c r="K298" s="2" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="L298" s="2" t="inlineStr">
-        <is>
-          <t>DWH Tracking of SGP Card Plays</t>
-        </is>
-      </c>
-      <c r="M298" s="2" t="inlineStr">
-        <is>
-          <t>functional</t>
-        </is>
-      </c>
-      <c r="N298" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O298" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P298" s="2" t="inlineStr">
-        <is>
-          <t>Precompiled SGP Card with specific field values; DWH_SGP Generator mapping documentation; user credentials with DWH access.</t>
-        </is>
-      </c>
-      <c r="Q298" s="2" t="inlineStr">
-        <is>
-          <t>All fields in the DWH record for the play from the precompiled SGP Card are correctly mapped and populated as per the DWH_SGP Generator specification.</t>
-        </is>
-      </c>
       <c r="R298" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S298" s="2" t="inlineStr">
         <is>
-          <t>Submit a play using a valid precompiled SGP Card with known field values (e.g., card ID, play amount, timestamp).</t>
+          <t>Navigate to the Home Page of the application via Desktop browser.</t>
         </is>
       </c>
       <c r="T298" s="2" t="inlineStr">
         <is>
-          <t>The play is successfully submitted and processed.</t>
-        </is>
-      </c>
-      <c r="U298" s="2" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="Y298" s="2" t="inlineStr">
-        <is>
-          <t>Test Case</t>
-        </is>
-      </c>
-      <c r="AA298" s="2" t="inlineStr">
-        <is>
-          <t>DWH</t>
+          <t>Home Page loads successfully.</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="R299" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S299" s="2" t="inlineStr">
         <is>
-          <t>Access the DWH tracking system and retrieve the record for the submitted play.</t>
+          <t>Observe the Carosello HP section.</t>
         </is>
       </c>
       <c r="T299" s="2" t="inlineStr">
         <is>
-          <t>A DWH record for the play is found.</t>
+          <t>The Carosello HP is displayed with only the Basket item visible; no Calcio item is present.</t>
         </is>
       </c>
     </row>
     <row r="300">
+      <c r="A300" s="2" t="inlineStr">
+        <is>
+          <t>DWHTracking-proj_PRJ0011767_MultiplePlays_functional/Desktop_TEST_Desktop</t>
+        </is>
+      </c>
+      <c r="B300" s="2" t="inlineStr">
+        <is>
+          <t>TC-004</t>
+        </is>
+      </c>
+      <c r="C300" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="D300" s="2" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="inlineStr">
+        <is>
+          <t>Backend</t>
+        </is>
+      </c>
+      <c r="F300" s="2" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="G300" s="2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="H300" s="2" t="inlineStr">
+        <is>
+          <t>UAT</t>
+        </is>
+      </c>
+      <c r="I300" s="2" t="inlineStr">
+        <is>
+          <t>Windows, Backend</t>
+        </is>
+      </c>
+      <c r="J300" s="2" t="inlineStr">
+        <is>
+          <t>1. DWH system is operational and accessible.
+2. Backend system is configured to process Card SGP precompiled plays.
+3. Tester has access to multiple valid precompiled Card SGPs.
+4. Tester has valid backend credentials.</t>
+        </is>
+      </c>
+      <c r="K300" s="2" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="L300" s="2" t="inlineStr">
+        <is>
+          <t>DWH Tracking</t>
+        </is>
+      </c>
+      <c r="M300" s="2" t="inlineStr">
+        <is>
+          <t>functional</t>
+        </is>
+      </c>
+      <c r="N300" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O300" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P300" s="2" t="inlineStr">
+        <is>
+          <t>Multiple valid precompiled Card SGPs, backend user credentials.</t>
+        </is>
+      </c>
+      <c r="Q300" s="2" t="inlineStr">
+        <is>
+          <t>Each play from a precompiled Card SGP is individually and correctly tracked in the DWH.</t>
+        </is>
+      </c>
       <c r="R300" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S300" s="2" t="inlineStr">
         <is>
-          <t>Compare each field in the DWH record with the expected mapping as defined in the DWH_SGP Generator document.</t>
+          <t>Access the system backend with valid credentials.</t>
         </is>
       </c>
       <c r="T300" s="2" t="inlineStr">
         <is>
-          <t>All fields in the DWH record match the expected values and mapping from the precompiled SGP Card submission.</t>
+          <t>Backend dashboard is displayed.</t>
+        </is>
+      </c>
+      <c r="U300" s="2" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="Y300" s="2" t="inlineStr">
+        <is>
+          <t>Test Case</t>
+        </is>
+      </c>
+      <c r="Z300" s="2" t="inlineStr">
+        <is>
+          <t>Covers tracking of multiple plays and DWH record uniqueness.</t>
+        </is>
+      </c>
+      <c r="AA300" s="2" t="inlineStr">
+        <is>
+          <t>DWH</t>
         </is>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="2" t="inlineStr">
-        <is>
-          <t>Verify DWH Tracking for Multiple Concurrent Precompiled SGP Card Plays</t>
-        </is>
-      </c>
-      <c r="B301" s="2" t="inlineStr">
-        <is>
-          <t>TC-DWH-004</t>
-        </is>
-      </c>
-      <c r="C301" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="D301" s="2" t="inlineStr">
-        <is>
-          <t>Backend</t>
-        </is>
-      </c>
-      <c r="E301" s="2" t="inlineStr">
-        <is>
-          <t>Backend</t>
-        </is>
-      </c>
-      <c r="F301" s="2" t="inlineStr">
-        <is>
-          <t>Computer</t>
-        </is>
-      </c>
-      <c r="G301" s="2" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="H301" s="2" t="inlineStr">
-        <is>
-          <t>UAT</t>
-        </is>
-      </c>
-      <c r="I301" s="2" t="inlineStr">
-        <is>
-          <t>Web Backend (DWH)</t>
-        </is>
-      </c>
-      <c r="J301" s="2" t="inlineStr">
-        <is>
-          <t>1. DWH system is operational and accessible.
-2. Multiple valid precompiled SGP Cards are available.
-3. User has necessary permissions to submit plays and access DWH records.</t>
-        </is>
-      </c>
-      <c r="K301" s="2" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="L301" s="2" t="inlineStr">
-        <is>
-          <t>DWH Tracking of SGP Card Plays</t>
-        </is>
-      </c>
-      <c r="M301" s="2" t="inlineStr">
-        <is>
-          <t>functional</t>
-        </is>
-      </c>
-      <c r="N301" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O301" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P301" s="2" t="inlineStr">
-        <is>
-          <t>Multiple precompiled SGP Cards with unique identifiers; user credentials with DWH access.</t>
-        </is>
-      </c>
-      <c r="Q301" s="2" t="inlineStr">
-        <is>
-          <t>Each play from a precompiled SGP Card is individually and accurately tracked in the DWH, with no data loss or misattribution.</t>
-        </is>
-      </c>
       <c r="R301" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S301" s="2" t="inlineStr">
         <is>
-          <t>Prepare multiple valid precompiled SGP Cards with unique identifiers.</t>
+          <t>Initiate multiple game plays using different precompiled Card SGPs in succession.</t>
         </is>
       </c>
       <c r="T301" s="2" t="inlineStr">
         <is>
-          <t>Multiple valid precompiled SGP Cards are available for testing.</t>
-        </is>
-      </c>
-      <c r="U301" s="2" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="Y301" s="2" t="inlineStr">
-        <is>
-          <t>Test Case</t>
-        </is>
-      </c>
-      <c r="AA301" s="2" t="inlineStr">
-        <is>
-          <t>DWH</t>
+          <t>Each game play is successfully initiated and processed.</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="R302" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S302" s="2" t="inlineStr">
         <is>
-          <t>Simultaneously submit plays using all prepared precompiled SGP Cards through the application interface.</t>
+          <t>Verify that each play is individually tracked in the DWH according to the DWH_SGP Generator specification.</t>
         </is>
       </c>
       <c r="T302" s="2" t="inlineStr">
         <is>
-          <t>All plays are successfully submitted and processed by the system.</t>
+          <t>A separate DWH record exists for each play, with correct data for each Card SGP.</t>
         </is>
       </c>
     </row>
     <row r="303">
+      <c r="A303" s="2" t="inlineStr">
+        <is>
+          <t>DWHTracking-proj_PRJ0011767_DWHUnavailability_functional/Desktop_TEST_Desktop</t>
+        </is>
+      </c>
+      <c r="B303" s="2" t="inlineStr">
+        <is>
+          <t>TC-005</t>
+        </is>
+      </c>
+      <c r="C303" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="D303" s="2" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="E303" s="2" t="inlineStr">
+        <is>
+          <t>Backend</t>
+        </is>
+      </c>
+      <c r="F303" s="2" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="G303" s="2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="H303" s="2" t="inlineStr">
+        <is>
+          <t>UAT</t>
+        </is>
+      </c>
+      <c r="I303" s="2" t="inlineStr">
+        <is>
+          <t>Windows, Backend</t>
+        </is>
+      </c>
+      <c r="J303" s="2" t="inlineStr">
+        <is>
+          <t>1. DWH system can be made unavailable for testing.
+2. Backend system is configured to process Card SGP precompiled plays.
+3. Tester has access to a valid precompiled Card SGP.
+4. Tester has valid backend credentials.</t>
+        </is>
+      </c>
+      <c r="K303" s="2" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="L303" s="2" t="inlineStr">
+        <is>
+          <t>DWH Tracking</t>
+        </is>
+      </c>
+      <c r="M303" s="2" t="inlineStr">
+        <is>
+          <t>functional</t>
+        </is>
+      </c>
+      <c r="N303" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O303" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P303" s="2" t="inlineStr">
+        <is>
+          <t>Valid precompiled Card SGP, backend user credentials.</t>
+        </is>
+      </c>
+      <c r="Q303" s="2" t="inlineStr">
+        <is>
+          <t>System handles DWH unavailability gracefully, ensuring no data loss and proper error handling or queuing.</t>
+        </is>
+      </c>
       <c r="R303" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S303" s="2" t="inlineStr">
         <is>
-          <t>Access the DWH tracking system and retrieve records for all submitted plays.</t>
+          <t>Simulate DWH system unavailability (e.g., disconnect DWH or stop DWH service).</t>
         </is>
       </c>
       <c r="T303" s="2" t="inlineStr">
         <is>
-          <t>A DWH record exists for each play submitted from a precompiled SGP Card.</t>
+          <t>DWH is not accessible from the backend.</t>
+        </is>
+      </c>
+      <c r="U303" s="2" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="Y303" s="2" t="inlineStr">
+        <is>
+          <t>Test Case</t>
+        </is>
+      </c>
+      <c r="Z303" s="2" t="inlineStr">
+        <is>
+          <t>Covers system behavior during DWH outages for Card SGP tracking.</t>
+        </is>
+      </c>
+      <c r="AA303" s="2" t="inlineStr">
+        <is>
+          <t>DWH</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="R304" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S304" s="2" t="inlineStr">
         <is>
-          <t>Verify that each DWH record corresponds to the correct SGP Card and contains accurate field values.</t>
+          <t>Attempt to initiate a game play using a precompiled Card SGP.</t>
         </is>
       </c>
       <c r="T304" s="2" t="inlineStr">
         <is>
-          <t>Each DWH record is correctly associated with its respective SGP Card and all fields are accurately populated.</t>
+          <t>System processes the play or handles the error as per business rules.</t>
         </is>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="2" t="inlineStr">
-        <is>
-          <t>Carosello non visualizzato se nessuna precompilata ricevuta dal backend</t>
-        </is>
-      </c>
-      <c r="B305" s="2" t="inlineStr">
-        <is>
-          <t>TC-001</t>
-        </is>
-      </c>
-      <c r="C305" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="D305" s="2" t="inlineStr">
-        <is>
-          <t>Desktop</t>
-        </is>
-      </c>
-      <c r="E305" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="F305" s="2" t="inlineStr">
-        <is>
-          <t>Computer</t>
-        </is>
-      </c>
-      <c r="G305" s="2" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="H305" s="2" t="inlineStr">
-        <is>
-          <t>UAT</t>
-        </is>
-      </c>
-      <c r="I305" s="2" t="inlineStr">
-        <is>
-          <t>Windows 10, Web</t>
-        </is>
-      </c>
-      <c r="J305" s="2" t="inlineStr">
-        <is>
-          <t>1. L'utente non deve essere autenticato. 2. Il backend deve essere configurato per non inviare alcuna precompilata (né Calcio né Basket). 3. L'applicazione deve essere raggiungibile e funzionante.</t>
-        </is>
-      </c>
-      <c r="K305" s="2" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="L305" s="2" t="inlineStr">
-        <is>
-          <t>Carosello Home Page</t>
-        </is>
-      </c>
-      <c r="M305" s="2" t="inlineStr">
-        <is>
-          <t>functional</t>
-        </is>
-      </c>
-      <c r="N305" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O305" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P305" s="2" t="inlineStr">
-        <is>
-          <t>Nessuna precompilata disponibile nel backend.</t>
-        </is>
-      </c>
-      <c r="Q305" s="2" t="inlineStr">
-        <is>
-          <t>Il carosello non viene visualizzato sulla Home Page se il backend non invia alcuna precompilata.</t>
-        </is>
-      </c>
       <c r="R305" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S305" s="2" t="inlineStr">
         <is>
-          <t>Accedere alla Home Page dell'applicazione.</t>
+          <t>Verify system behavior regarding DWH tracking (e.g., retry, queue, or error message).</t>
         </is>
       </c>
       <c r="T305" s="2" t="inlineStr">
         <is>
-          <t>La Home Page viene caricata correttamente.</t>
-        </is>
-      </c>
-      <c r="U305" s="2" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="Y305" s="2" t="inlineStr">
-        <is>
-          <t>Test Case</t>
-        </is>
-      </c>
-      <c r="AA305" s="2" t="inlineStr">
-        <is>
-          <t>Carosello HP - Condizioni di visualizzazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="R306" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S306" s="2" t="inlineStr">
-        <is>
-          <t>Simulare la risposta del backend senza alcuna precompilata (né Calcio né Basket).</t>
-        </is>
-      </c>
-      <c r="T306" s="2" t="inlineStr">
-        <is>
-          <t>La risposta del backend non contiene dati precompilati per il carosello.</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="R307" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S307" s="2" t="inlineStr">
-        <is>
-          <t>Verificare la presenza del carosello sulla Home Page.</t>
-        </is>
-      </c>
-      <c r="T307" s="2" t="inlineStr">
-        <is>
-          <t>Il carosello non viene visualizzato sulla Home Page.</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="2" t="inlineStr">
-        <is>
-          <t>Carosello visualizzato solo con item Calcio se manca precompilata Basket</t>
-        </is>
-      </c>
-      <c r="B308" s="2" t="inlineStr">
-        <is>
-          <t>TC-002</t>
-        </is>
-      </c>
-      <c r="C308" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="D308" s="2" t="inlineStr">
-        <is>
-          <t>Desktop</t>
-        </is>
-      </c>
-      <c r="E308" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="F308" s="2" t="inlineStr">
-        <is>
-          <t>Computer</t>
-        </is>
-      </c>
-      <c r="G308" s="2" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="H308" s="2" t="inlineStr">
-        <is>
-          <t>UAT</t>
-        </is>
-      </c>
-      <c r="I308" s="2" t="inlineStr">
-        <is>
-          <t>Windows 10, Web</t>
-        </is>
-      </c>
-      <c r="J308" s="2" t="inlineStr">
-        <is>
-          <t>1. L'utente non deve essere autenticato. 2. Il backend deve essere configurato per inviare solo la precompilata Calcio. 3. L'applicazione deve essere raggiungibile e funzionante.</t>
-        </is>
-      </c>
-      <c r="K308" s="2" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="L308" s="2" t="inlineStr">
-        <is>
-          <t>Carosello Home Page</t>
-        </is>
-      </c>
-      <c r="M308" s="2" t="inlineStr">
-        <is>
-          <t>functional</t>
-        </is>
-      </c>
-      <c r="N308" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O308" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P308" s="2" t="inlineStr">
-        <is>
-          <t>Precompilata Calcio disponibile, precompilata Basket assente.</t>
-        </is>
-      </c>
-      <c r="Q308" s="2" t="inlineStr">
-        <is>
-          <t>Il carosello viene visualizzato con il solo item Calcio se la precompilata Basket non è disponibile.</t>
-        </is>
-      </c>
-      <c r="R308" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S308" s="2" t="inlineStr">
-        <is>
-          <t>Accedere alla Home Page dell'applicazione.</t>
-        </is>
-      </c>
-      <c r="T308" s="2" t="inlineStr">
-        <is>
-          <t>La Home Page viene caricata correttamente.</t>
-        </is>
-      </c>
-      <c r="U308" s="2" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="Y308" s="2" t="inlineStr">
-        <is>
-          <t>Test Case</t>
-        </is>
-      </c>
-      <c r="AA308" s="2" t="inlineStr">
-        <is>
-          <t>Carosello HP - Condizioni di visualizzazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="R309" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S309" s="2" t="inlineStr">
-        <is>
-          <t>Simulare la risposta del backend con sola precompilata Calcio (assenza di precompilata Basket).</t>
-        </is>
-      </c>
-      <c r="T309" s="2" t="inlineStr">
-        <is>
-          <t>La risposta del backend contiene solo la precompilata Calcio.</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="R310" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S310" s="2" t="inlineStr">
-        <is>
-          <t>Verificare la visualizzazione del carosello sulla Home Page.</t>
-        </is>
-      </c>
-      <c r="T310" s="2" t="inlineStr">
-        <is>
-          <t>Il carosello viene visualizzato sulla Home Page.</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="R311" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S311" s="2" t="inlineStr">
-        <is>
-          <t>Verificare che il carosello contenga solo l'item Calcio.</t>
-        </is>
-      </c>
-      <c r="T311" s="2" t="inlineStr">
-        <is>
-          <t>Il carosello mostra esclusivamente l'item Calcio.</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="2" t="inlineStr">
-        <is>
-          <t>Carosello visualizzato solo con item Basket se manca precompilata Calcio</t>
-        </is>
-      </c>
-      <c r="B312" s="2" t="inlineStr">
-        <is>
-          <t>TC-003</t>
-        </is>
-      </c>
-      <c r="C312" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="D312" s="2" t="inlineStr">
-        <is>
-          <t>Desktop</t>
-        </is>
-      </c>
-      <c r="E312" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="F312" s="2" t="inlineStr">
-        <is>
-          <t>Computer</t>
-        </is>
-      </c>
-      <c r="G312" s="2" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="H312" s="2" t="inlineStr">
-        <is>
-          <t>UAT</t>
-        </is>
-      </c>
-      <c r="I312" s="2" t="inlineStr">
-        <is>
-          <t>Windows 10, Web</t>
-        </is>
-      </c>
-      <c r="J312" s="2" t="inlineStr">
-        <is>
-          <t>1. L'utente non deve essere autenticato. 2. Il backend deve essere configurato per inviare solo la precompilata Basket. 3. L'applicazione deve essere raggiungibile e funzionante.</t>
-        </is>
-      </c>
-      <c r="K312" s="2" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="L312" s="2" t="inlineStr">
-        <is>
-          <t>Carosello Home Page</t>
-        </is>
-      </c>
-      <c r="M312" s="2" t="inlineStr">
-        <is>
-          <t>functional</t>
-        </is>
-      </c>
-      <c r="N312" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O312" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P312" s="2" t="inlineStr">
-        <is>
-          <t>Precompilata Basket disponibile, precompilata Calcio assente.</t>
-        </is>
-      </c>
-      <c r="Q312" s="2" t="inlineStr">
-        <is>
-          <t>Il carosello viene visualizzato con il solo item Basket se la precompilata Calcio non è disponibile.</t>
-        </is>
-      </c>
-      <c r="R312" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S312" s="2" t="inlineStr">
-        <is>
-          <t>Accedere alla Home Page dell'applicazione.</t>
-        </is>
-      </c>
-      <c r="T312" s="2" t="inlineStr">
-        <is>
-          <t>La Home Page viene caricata correttamente.</t>
-        </is>
-      </c>
-      <c r="U312" s="2" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="Y312" s="2" t="inlineStr">
-        <is>
-          <t>Test Case</t>
-        </is>
-      </c>
-      <c r="AA312" s="2" t="inlineStr">
-        <is>
-          <t>Carosello HP - Condizioni di visualizzazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="R313" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S313" s="2" t="inlineStr">
-        <is>
-          <t>Simulare la risposta del backend con sola precompilata Basket (assenza di precompilata Calcio).</t>
-        </is>
-      </c>
-      <c r="T313" s="2" t="inlineStr">
-        <is>
-          <t>La risposta del backend contiene solo la precompilata Basket.</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="R314" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S314" s="2" t="inlineStr">
-        <is>
-          <t>Verificare la visualizzazione del carosello sulla Home Page.</t>
-        </is>
-      </c>
-      <c r="T314" s="2" t="inlineStr">
-        <is>
-          <t>Il carosello viene visualizzato sulla Home Page.</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="R315" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S315" s="2" t="inlineStr">
-        <is>
-          <t>Verificare che il carosello contenga solo l'item Basket.</t>
-        </is>
-      </c>
-      <c r="T315" s="2" t="inlineStr">
-        <is>
-          <t>Il carosello mostra esclusivamente l'item Basket.</t>
+          <t>System either queues the tracking event for later submission or provides a clear error message; no data loss occurs.</t>
         </is>
       </c>
     </row>
